--- a/final-project/2 - Market Research & Target Segments/Marketing Research/Competitior Analysis.xlsx
+++ b/final-project/2 - Market Research & Target Segments/Marketing Research/Competitior Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ML\1-Projects\digital_marketing_graduation_project\2 - Market Research &amp; Target Segments\Marketing Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ML\1-Projects\digital_marketing_graduation_project\final-project\2 - Market Research &amp; Target Segments\Marketing Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C85446B-CEB2-4CE9-B745-4DB9741927C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99524B0A-1665-4F70-9B8E-3B146D6A8219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1560,9 +1560,9 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I62" sqref="I57:I62"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.4"/>
@@ -1750,7 +1750,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="139.4" thickTop="1" thickBot="1">
+    <row r="5" spans="1:25" ht="116.35" thickTop="1" thickBot="1">
       <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="231.55" thickTop="1" thickBot="1">
+    <row r="15" spans="1:25" ht="185.5" thickTop="1" thickBot="1">
       <c r="A15" s="61" t="s">
         <v>12</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="158.4" thickTop="1" thickBot="1">
+    <row r="24" spans="1:25" ht="135.94999999999999" thickTop="1" thickBot="1">
       <c r="A24" s="65" t="s">
         <v>72</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
     </row>
-    <row r="31" spans="1:25" ht="47.25" thickTop="1" thickBot="1">
+    <row r="31" spans="1:25" ht="24.2" thickTop="1" thickBot="1">
       <c r="A31" s="45" t="s">
         <v>12</v>
       </c>
@@ -29482,7 +29482,7 @@
     </row>
     <row r="999" spans="1:25" ht="15" thickTop="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y1 F6 H6 E6:E12 A6:A20 F7:G7 D7:D9 H7:I11 B7:B15 F8:F10 F11:G11 C11:D12 F12:I12 C13:I14 C15:E15 G15:I15 F15:F18 B16:E18 H16:H18 I17 B19:I22 B23:D23 F23:F24 E23:E28 A23:A998 D24 H23:I24 B24:B28 C25:D25 F25:I28 D26:D27 C28:D28 B29:I29 B30:E30 H30:I30 B31:I36 G37:H37 C37:F41 I37:I41 B37:B42 H38:H41 G39:G41 C42:I42 B44:G48 K19:Y42 K2:Y17 A2:J5 J7:J42 J44:J48">
+  <conditionalFormatting sqref="A1:Y1 A2:J5 K2:Y17 F6 H6 E6:E12 A6:A20 F7:G7 D7:D9 H7:I11 B7:B15 J7:J42 F8:F10 F11:G11 C11:D12 F12:I12 C13:I14 C15:E15 G15:I15 F15:F18 B16:E18 H16:H18 I17 B19:I22 K19:Y42 B23:D23 F23:F24 H23:I24 E23:E28 A23:A998 D24 B24:B28 C25:D25 F25:I28 D26:D27 C28:D28 B29:I29 B30:E30 H30:I30 B31:I36 G37:H37 C37:F41 I37:I41 B37:B42 H38:H41 G39:G41 C42:I42 B44:G48 J44:J48">
     <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
